--- a/Nestbox_v2/BOM_Nestbox_v2.xlsx
+++ b/Nestbox_v2/BOM_Nestbox_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23580" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="30160" windowHeight="23540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_Nestbox_v2.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="230">
   <si>
     <t>Source:</t>
   </si>
@@ -405,18 +405,12 @@
     <t>R201</t>
   </si>
   <si>
-    <t>100k</t>
-  </si>
-  <si>
     <t>device:R</t>
   </si>
   <si>
     <t>Resistors_SMD:R_0603</t>
   </si>
   <si>
-    <t>50k</t>
-  </si>
-  <si>
     <t>R203</t>
   </si>
   <si>
@@ -426,15 +420,9 @@
     <t>R204</t>
   </si>
   <si>
-    <t>162k</t>
-  </si>
-  <si>
     <t>R205</t>
   </si>
   <si>
-    <t>649k</t>
-  </si>
-  <si>
     <t>R206</t>
   </si>
   <si>
@@ -465,9 +453,6 @@
     <t>DNP</t>
   </si>
   <si>
-    <t>1k 1%</t>
-  </si>
-  <si>
     <t>100R 1%</t>
   </si>
   <si>
@@ -480,12 +465,6 @@
     <t>2k2</t>
   </si>
   <si>
-    <t>18k</t>
-  </si>
-  <si>
-    <t>33k</t>
-  </si>
-  <si>
     <t>SW301</t>
   </si>
   <si>
@@ -667,6 +646,69 @@
   </si>
   <si>
     <t>SDSDQAB-008G</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>Change to 805 size</t>
+  </si>
+  <si>
+    <t>rename</t>
+  </si>
+  <si>
+    <t>change footprint and/or value. Placed 10 uf</t>
+  </si>
+  <si>
+    <t>rename; wrong MPN, is not in würth box. Used 24pf</t>
+  </si>
+  <si>
+    <t>check land pattern with datasheet</t>
+  </si>
+  <si>
+    <t>silkscreen illegible</t>
+  </si>
+  <si>
+    <t>consolidate with other inductor possible?</t>
+  </si>
+  <si>
+    <t>??? Are the component names inverted???</t>
+  </si>
+  <si>
+    <t>consolidate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consolidate </t>
+  </si>
+  <si>
+    <t>82k 1%</t>
+  </si>
+  <si>
+    <t>47K 1%</t>
+  </si>
+  <si>
+    <t>R701 could be 82k</t>
+  </si>
+  <si>
+    <t>rename --&gt; 10k</t>
+  </si>
+  <si>
+    <t>1k 0.1%</t>
+  </si>
+  <si>
+    <t>162k 1%</t>
+  </si>
+  <si>
+    <t>649k 1%</t>
+  </si>
+  <si>
+    <t>C602 label confusing position</t>
+  </si>
+  <si>
+    <t>could maybe be consolidated with LED resistor values</t>
+  </si>
+  <si>
+    <t>inductor too close.. Pads of tps not accessible</t>
   </si>
 </sst>
 </file>
@@ -713,7 +755,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -744,6 +786,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -754,7 +802,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -771,8 +819,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -782,8 +840,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -793,12 +852,22 @@
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1128,19 +1197,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1156,7 +1226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1172,7 +1242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1180,7 +1250,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1217,16 +1287,19 @@
       <c r="L7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>190</v>
+      <c r="C8" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -1237,16 +1310,19 @@
       <c r="F8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>191</v>
+      <c r="C9" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -1258,14 +1334,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
@@ -1278,14 +1354,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
@@ -1298,14 +1374,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D12" t="s">
@@ -1318,15 +1394,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
-        <v>192</v>
+      <c r="C13" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
@@ -1338,15 +1414,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>193</v>
+      <c r="C14" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="D14" t="s">
         <v>32</v>
@@ -1363,15 +1439,18 @@
       <c r="L14">
         <v>302010067</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>8</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D15" t="s">
@@ -1386,15 +1465,18 @@
       <c r="K15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>9</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D16" t="s">
@@ -1406,16 +1488,19 @@
       <c r="F16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>10</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
-        <v>194</v>
+      <c r="C17" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="D17" t="s">
         <v>41</v>
@@ -1426,16 +1511,19 @@
       <c r="F17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>11</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>195</v>
+      <c r="C18" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
@@ -1446,15 +1534,18 @@
       <c r="F18" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>12</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D19" t="s">
@@ -1466,8 +1557,11 @@
       <c r="F19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>13</v>
       </c>
@@ -1487,7 +1581,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>14</v>
       </c>
@@ -1498,7 +1592,7 @@
         <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E21" t="s">
         <v>52</v>
@@ -1513,7 +1607,7 @@
         <v>304090043</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>15</v>
       </c>
@@ -1539,7 +1633,7 @@
         <v>304090045</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>16</v>
       </c>
@@ -1559,7 +1653,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>17</v>
       </c>
@@ -1579,7 +1673,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>18</v>
       </c>
@@ -1599,7 +1693,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>19</v>
       </c>
@@ -1619,7 +1713,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>20</v>
       </c>
@@ -1639,7 +1733,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>21</v>
       </c>
@@ -1659,7 +1753,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>22</v>
       </c>
@@ -1679,7 +1773,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>23</v>
       </c>
@@ -1699,7 +1793,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>24</v>
       </c>
@@ -1719,7 +1813,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>25</v>
       </c>
@@ -1739,7 +1833,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>26</v>
       </c>
@@ -1759,14 +1853,14 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:13">
       <c r="A34" s="2">
         <v>27</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D34" t="s">
@@ -1781,15 +1875,18 @@
       <c r="H34" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="2">
         <v>28</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="7" t="s">
         <v>102</v>
       </c>
       <c r="D35" t="s">
@@ -1804,15 +1901,18 @@
       <c r="I35" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>29</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="7" t="s">
         <v>106</v>
       </c>
       <c r="D36" t="s">
@@ -1828,7 +1928,7 @@
         <v>303030020</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>30</v>
       </c>
@@ -1848,7 +1948,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>31</v>
       </c>
@@ -1868,7 +1968,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>32</v>
       </c>
@@ -1888,18 +1988,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:13">
       <c r="A40" s="3">
         <v>33</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E40" t="s">
         <v>118</v>
@@ -1908,15 +2008,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:13">
       <c r="A41" s="3">
         <v>34</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
-      <c r="C41" t="s">
-        <v>196</v>
+      <c r="C41" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="D41" t="s">
         <v>120</v>
@@ -1928,15 +2028,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:13">
       <c r="A42" s="3">
         <v>35</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
-      <c r="C42" t="s">
-        <v>197</v>
+      <c r="C42" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="D42" t="s">
         <v>123</v>
@@ -1948,15 +2048,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>36</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
-      <c r="C43" t="s">
-        <v>198</v>
+      <c r="C43" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="D43" t="s">
         <v>124</v>
@@ -1968,14 +2068,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:13">
       <c r="A44" s="3">
         <v>37</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="7" t="s">
         <v>126</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -1988,359 +2088,374 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>38</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" t="s">
         <v>128</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>129</v>
       </c>
-      <c r="F45" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>39</v>
       </c>
       <c r="B46">
         <v>2</v>
       </c>
-      <c r="C46" t="s">
-        <v>199</v>
-      </c>
-      <c r="D46" t="s">
-        <v>131</v>
+      <c r="C46" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="E46" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" t="s">
         <v>129</v>
       </c>
-      <c r="F46" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>40</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" t="s">
-        <v>132</v>
+      <c r="C47" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" t="s">
         <v>129</v>
       </c>
-      <c r="F47" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="3">
         <v>41</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" t="s">
-        <v>135</v>
+      <c r="C48" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="E48" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" t="s">
         <v>129</v>
       </c>
-      <c r="F48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="3">
         <v>42</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" t="s">
-        <v>137</v>
+      <c r="C49" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E49" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" t="s">
         <v>129</v>
       </c>
-      <c r="F49" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>43</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" t="s">
-        <v>138</v>
+      <c r="C50" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E50" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" t="s">
         <v>129</v>
       </c>
-      <c r="F50" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>44</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" t="s">
-        <v>140</v>
+      <c r="C51" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="D51" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E51" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J51" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L51">
         <v>301020022</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>45</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
-      <c r="C52" t="s">
-        <v>200</v>
+      <c r="C52" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" t="s">
         <v>129</v>
       </c>
-      <c r="F52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>46</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
-      <c r="C53" t="s">
-        <v>201</v>
+      <c r="C53" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" t="s">
         <v>129</v>
       </c>
-      <c r="F53" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>47</v>
       </c>
       <c r="B54">
         <v>8</v>
       </c>
-      <c r="C54" t="s">
-        <v>202</v>
+      <c r="C54" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E54" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" t="s">
         <v>129</v>
       </c>
-      <c r="F54" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>48</v>
       </c>
       <c r="B55">
         <v>4</v>
       </c>
-      <c r="C55" t="s">
-        <v>203</v>
+      <c r="C55" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E55" t="s">
+        <v>128</v>
+      </c>
+      <c r="F55" t="s">
         <v>129</v>
       </c>
-      <c r="F55" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="3">
         <v>49</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" t="s">
+        <v>129</v>
+      </c>
+      <c r="J56" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D56" t="s">
-        <v>148</v>
-      </c>
-      <c r="E56" t="s">
-        <v>129</v>
-      </c>
-      <c r="F56" t="s">
-        <v>130</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="3">
         <v>50</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D57" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" t="s">
+        <v>128</v>
+      </c>
+      <c r="F57" t="s">
+        <v>129</v>
+      </c>
+      <c r="J57" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D57" t="s">
-        <v>149</v>
-      </c>
-      <c r="E57" t="s">
-        <v>129</v>
-      </c>
-      <c r="F57" t="s">
-        <v>130</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>51</v>
       </c>
       <c r="B58">
         <v>2</v>
       </c>
-      <c r="C58" t="s">
-        <v>206</v>
+      <c r="C58" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E58" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" t="s">
         <v>129</v>
       </c>
-      <c r="F58" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>52</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-      <c r="C59" t="s">
-        <v>151</v>
+      <c r="C59" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="D59" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E59" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" t="s">
         <v>129</v>
       </c>
-      <c r="F59" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>53</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
-      <c r="C60" t="s">
-        <v>207</v>
-      </c>
-      <c r="D60" t="s">
-        <v>153</v>
+      <c r="C60" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="E60" t="s">
+        <v>128</v>
+      </c>
+      <c r="F60" t="s">
         <v>129</v>
       </c>
-      <c r="F60" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>54</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
-      <c r="C61" t="s">
-        <v>208</v>
-      </c>
-      <c r="D61" t="s">
-        <v>154</v>
+      <c r="C61" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="E61" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" t="s">
         <v>129</v>
       </c>
-      <c r="F61" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>55</v>
       </c>
@@ -2348,62 +2463,65 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E62" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F62" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="J62" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L62">
         <v>311020047</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>56</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-      <c r="C63" t="s">
-        <v>160</v>
+      <c r="C63" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="D63" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E63" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F63" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>156</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="3">
         <v>57</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-      <c r="C64" t="s">
-        <v>164</v>
+      <c r="C64" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E64" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F64" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2413,17 +2531,17 @@
       <c r="B65">
         <v>1</v>
       </c>
-      <c r="C65" t="s">
-        <v>168</v>
+      <c r="C65" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="D65" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E65" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F65" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2433,20 +2551,20 @@
       <c r="B66">
         <v>1</v>
       </c>
-      <c r="C66" t="s">
-        <v>172</v>
+      <c r="C66" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="D66" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E66" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F66" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="J66" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2457,16 +2575,16 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D67" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E67" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F67" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2476,17 +2594,17 @@
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="C68" t="s">
-        <v>181</v>
+      <c r="C68" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="D68" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E68" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F68" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2496,33 +2614,33 @@
       <c r="B69">
         <v>1</v>
       </c>
-      <c r="C69" t="s">
-        <v>185</v>
+      <c r="C69" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="D69" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E69" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F69" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="J69" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="30">
       <c r="J70" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="30">
       <c r="D73" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Nestbox_v2/BOM_Nestbox_v2.xlsx
+++ b/Nestbox_v2/BOM_Nestbox_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="30160" windowHeight="23540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_Nestbox_v2.csv" sheetId="1" r:id="rId1"/>
@@ -755,7 +755,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,6 +792,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -802,7 +814,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -829,8 +841,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -841,8 +861,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="34">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -857,6 +879,10 @@
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -868,6 +894,10 @@
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1199,14 +1229,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="44" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
@@ -1415,7 +1447,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14">
+      <c r="A14" s="8">
         <v>7</v>
       </c>
       <c r="B14">
@@ -2482,7 +2514,7 @@
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63">
+      <c r="A63" s="9">
         <v>56</v>
       </c>
       <c r="B63">

--- a/Nestbox_v2/BOM_Nestbox_v2.xlsx
+++ b/Nestbox_v2/BOM_Nestbox_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_Nestbox_v2.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="229">
   <si>
     <t>Source:</t>
   </si>
@@ -654,12 +654,6 @@
     <t>Change to 805 size</t>
   </si>
   <si>
-    <t>rename</t>
-  </si>
-  <si>
-    <t>change footprint and/or value. Placed 10 uf</t>
-  </si>
-  <si>
     <t>rename; wrong MPN, is not in würth box. Used 24pf</t>
   </si>
   <si>
@@ -709,13 +703,16 @@
   </si>
   <si>
     <t>inductor too close.. Pads of tps not accessible</t>
+  </si>
+  <si>
+    <t>$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -750,6 +747,12 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -805,7 +808,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -813,8 +816,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="34">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -849,22 +867,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="34">
+  <cellStyles count="36">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -883,6 +905,7 @@
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -898,6 +921,7 @@
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1227,10 +1251,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1239,7 +1266,7 @@
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="11" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="6"/>
+    <col min="13" max="13" width="43.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1283,1404 +1310,1804 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>4</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>7</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>2</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J14" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L14">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
         <v>302010067</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="3">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="3">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="3">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="3">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15">
+    <row r="20" spans="1:13">
+      <c r="A20" s="7">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="7">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3">
+        <v>304090043</v>
+      </c>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="3">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3">
+        <v>304090045</v>
+      </c>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="3">
+        <v>16</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="3">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="3">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="3">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="3">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="3">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="3">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="3">
+        <v>23</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3">
+        <v>24</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3">
+        <v>25</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3">
+        <v>26</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="8">
+        <v>27</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="8">
+        <v>28</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3">
+        <v>29</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3">
+        <v>303030020</v>
+      </c>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3">
+        <v>30</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3">
+        <v>31</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3">
+        <v>32</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="9">
+        <v>33</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="9">
+        <v>34</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="9">
+        <v>35</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="7">
+        <v>36</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="9">
+        <v>37</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="3">
+        <v>38</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="3">
+        <v>39</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="3">
+        <v>40</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="9">
+        <v>41</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="9">
+        <v>42</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="3">
+        <v>43</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="3">
+        <v>44</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3">
+        <v>301020022</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="3">
+        <v>45</v>
+      </c>
+      <c r="B52" s="3">
+        <v>6</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="4"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="3">
+        <v>46</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="3">
+        <v>47</v>
+      </c>
+      <c r="B54" s="3">
         <v>8</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="6" t="s">
+      <c r="C54" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="3">
+        <v>48</v>
+      </c>
+      <c r="B55" s="3">
+        <v>4</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="9">
+        <v>49</v>
+      </c>
+      <c r="B56" s="3">
+        <v>4</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="9">
+        <v>50</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="3">
+        <v>51</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="3">
+        <v>52</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="3">
+        <v>53</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="3">
+        <v>54</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="3">
+        <v>55</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3">
+        <v>311020047</v>
+      </c>
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="10">
+        <v>56</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1">
-        <v>11</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19">
-        <v>12</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="1">
-        <v>14</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>202</v>
-      </c>
-      <c r="E21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" t="s">
-        <v>54</v>
-      </c>
-      <c r="L21">
-        <v>304090043</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22">
-        <v>15</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" t="s">
+    <row r="64" spans="1:13">
+      <c r="A64" s="9">
         <v>57</v>
       </c>
-      <c r="F22" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="3">
         <v>58</v>
       </c>
-      <c r="L22">
-        <v>304090045</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23">
-        <v>16</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="3">
         <v>59</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="11">
         <v>60</v>
       </c>
-      <c r="E23" t="s">
+      <c r="B67" s="3">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="3">
         <v>61</v>
       </c>
-      <c r="F23" t="s">
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="4"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="9">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24">
-        <v>17</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25">
-        <v>18</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26">
-        <v>19</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27">
-        <v>20</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28">
-        <v>21</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29">
-        <v>22</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30">
-        <v>23</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31">
-        <v>24</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32">
-        <v>25</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33">
-        <v>26</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="2">
-        <v>27</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" t="s">
-        <v>100</v>
-      </c>
-      <c r="H34" t="s">
-        <v>101</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="2">
-        <v>28</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" t="s">
-        <v>104</v>
-      </c>
-      <c r="I35" t="s">
-        <v>105</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36">
-        <v>29</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" t="s">
-        <v>109</v>
-      </c>
-      <c r="L36">
-        <v>303030020</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37">
-        <v>30</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38">
-        <v>31</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39">
-        <v>32</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="3">
-        <v>33</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E40" t="s">
-        <v>118</v>
-      </c>
-      <c r="F40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="3">
-        <v>34</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D41" t="s">
-        <v>120</v>
-      </c>
-      <c r="E41" t="s">
-        <v>121</v>
-      </c>
-      <c r="F41" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="3">
-        <v>35</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D42" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="1">
-        <v>36</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D43" t="s">
-        <v>124</v>
-      </c>
-      <c r="E43" t="s">
-        <v>125</v>
-      </c>
-      <c r="F43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="3">
-        <v>37</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E44" t="s">
-        <v>125</v>
-      </c>
-      <c r="F44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45">
-        <v>38</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E45" t="s">
-        <v>128</v>
-      </c>
-      <c r="F45" t="s">
-        <v>129</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46">
-        <v>39</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E46" t="s">
-        <v>128</v>
-      </c>
-      <c r="F46" t="s">
-        <v>129</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47">
-        <v>40</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" t="s">
-        <v>131</v>
-      </c>
-      <c r="E47" t="s">
-        <v>128</v>
-      </c>
-      <c r="F47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="3">
-        <v>41</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E48" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="3">
-        <v>42</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E49" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50">
-        <v>43</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D50" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50" t="s">
-        <v>128</v>
-      </c>
-      <c r="F50" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51">
-        <v>44</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D51" t="s">
-        <v>137</v>
-      </c>
-      <c r="E51" t="s">
-        <v>138</v>
-      </c>
-      <c r="F51" t="s">
-        <v>129</v>
-      </c>
-      <c r="J51" t="s">
-        <v>139</v>
-      </c>
-      <c r="L51">
-        <v>301020022</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52">
-        <v>45</v>
-      </c>
-      <c r="B52">
-        <v>6</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D52" t="s">
-        <v>140</v>
-      </c>
-      <c r="E52" t="s">
-        <v>128</v>
-      </c>
-      <c r="F52" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53">
-        <v>46</v>
-      </c>
-      <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D53" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54">
-        <v>47</v>
-      </c>
-      <c r="B54">
-        <v>8</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D54" t="s">
-        <v>142</v>
-      </c>
-      <c r="E54" t="s">
-        <v>128</v>
-      </c>
-      <c r="F54" t="s">
-        <v>129</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55">
-        <v>48</v>
-      </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D55" t="s">
-        <v>143</v>
-      </c>
-      <c r="E55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F55" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="3">
-        <v>49</v>
-      </c>
-      <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E56" t="s">
-        <v>128</v>
-      </c>
-      <c r="F56" t="s">
-        <v>129</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="3">
-        <v>50</v>
-      </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D57" t="s">
-        <v>144</v>
-      </c>
-      <c r="E57" t="s">
-        <v>128</v>
-      </c>
-      <c r="F57" t="s">
-        <v>129</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58">
-        <v>51</v>
-      </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D58" t="s">
-        <v>145</v>
-      </c>
-      <c r="E58" t="s">
-        <v>128</v>
-      </c>
-      <c r="F58" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59">
-        <v>52</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" t="s">
-        <v>147</v>
-      </c>
-      <c r="E59" t="s">
-        <v>128</v>
-      </c>
-      <c r="F59" t="s">
-        <v>129</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60">
-        <v>53</v>
-      </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E60" t="s">
-        <v>128</v>
-      </c>
-      <c r="F60" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61">
-        <v>54</v>
-      </c>
-      <c r="B61">
-        <v>2</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E61" t="s">
-        <v>128</v>
-      </c>
-      <c r="F61" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62">
-        <v>55</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" t="s">
-        <v>148</v>
-      </c>
-      <c r="D62" t="s">
-        <v>149</v>
-      </c>
-      <c r="E62" t="s">
-        <v>150</v>
-      </c>
-      <c r="F62" t="s">
-        <v>151</v>
-      </c>
-      <c r="J62" t="s">
-        <v>152</v>
-      </c>
-      <c r="L62">
-        <v>311020047</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="9">
-        <v>56</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D63" t="s">
-        <v>154</v>
-      </c>
-      <c r="E63" t="s">
-        <v>155</v>
-      </c>
-      <c r="F63" t="s">
-        <v>156</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="3">
-        <v>57</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D64" t="s">
-        <v>158</v>
-      </c>
-      <c r="E64" t="s">
-        <v>159</v>
-      </c>
-      <c r="F64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65">
-        <v>58</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D65" t="s">
-        <v>162</v>
-      </c>
-      <c r="E65" t="s">
-        <v>163</v>
-      </c>
-      <c r="F65" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66">
-        <v>59</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D66" t="s">
-        <v>166</v>
-      </c>
-      <c r="E66" t="s">
-        <v>167</v>
-      </c>
-      <c r="F66" t="s">
-        <v>168</v>
-      </c>
-      <c r="J66" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="5">
-        <v>60</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>170</v>
-      </c>
-      <c r="D67" t="s">
-        <v>171</v>
-      </c>
-      <c r="E67" t="s">
-        <v>172</v>
-      </c>
-      <c r="F67" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68">
-        <v>61</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D68" t="s">
-        <v>175</v>
-      </c>
-      <c r="E68" t="s">
-        <v>176</v>
-      </c>
-      <c r="F68" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="3">
-        <v>62</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69" s="7" t="s">
+      <c r="B69" s="3">
+        <v>1</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="J69" t="s">
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="30">
-      <c r="J70" s="4" t="s">
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="1:13" ht="30">
+      <c r="J70" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="30">
+    <row r="73" spans="1:13" ht="30">
       <c r="D73" t="s">
         <v>207</v>
       </c>
-      <c r="J73" s="4" t="s">
+      <c r="J73" s="1" t="s">
         <v>208</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="2" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
